--- a/output/StructureDefinition-NatlDirEndpointQry-OrganizationAffiliation.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-OrganizationAffiliation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-06T09:30:55-05:00</t>
+    <t>2022-01-07T08:48:00-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-OrganizationAffiliation.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-OrganizationAffiliation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-07T08:48:00-05:00</t>
+    <t>2022-01-10T11:07:52-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -256,7 +256,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}organization-or-participatingOrganization:NatlDirOrganizationAffiliation.organization or  NatlDirOrganizationAffiliation.participatingOrganization {organization.exists() or participatingOrganization.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}organization-or-participatingOrganization:NatlDirEndpointQryOrganizationAffiliation.organization or  NatlDirEndpointQryOrganizationAffiliation.participatingOrganization {organization.exists() or participatingOrganization.exists()}</t>
   </si>
   <si>
     <t>Role</t>
@@ -852,7 +852,7 @@
     <t>OrganizationAffiliation.organization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Organization)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Organization)
 </t>
   </si>
   <si>
@@ -880,7 +880,7 @@
     <t>OrganizationAffiliation.network</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Network)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Network)
 </t>
   </si>
   <si>
@@ -923,7 +923,7 @@
     <t>OrganizationAffiliation.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Location)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Location)
 </t>
   </si>
   <si>
@@ -942,7 +942,7 @@
     <t>OrganizationAffiliation.healthcareService</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-HealthcareService)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-HealthcareService)
 </t>
   </si>
   <si>
@@ -1090,7 +1090,7 @@
     <t>OrganizationAffiliation.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-exchange/StructureDefinition/NatlDir-Endpoint)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Endpoint)
 </t>
   </si>
   <si>

--- a/output/StructureDefinition-NatlDirEndpointQry-OrganizationAffiliation.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-OrganizationAffiliation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T11:07:52-05:00</t>
+    <t>2022-01-10T14:04:03-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-OrganizationAffiliation.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-OrganizationAffiliation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T14:04:03-05:00</t>
+    <t>2022-01-11T11:42:07-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-OrganizationAffiliation.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-OrganizationAffiliation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-11T11:42:07-05:00</t>
+    <t>2022-01-11T11:53:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-OrganizationAffiliation.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-OrganizationAffiliation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-11T11:53:21-05:00</t>
+    <t>2022-02-03T09:58:18-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-OrganizationAffiliation.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-OrganizationAffiliation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-03T09:58:18-05:00</t>
+    <t>2022-02-03T10:48:00-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-OrganizationAffiliation.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-OrganizationAffiliation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-03T10:48:00-05:00</t>
+    <t>2022-03-09T14:32:46-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-OrganizationAffiliation.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-OrganizationAffiliation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-09T14:32:46-05:00</t>
+    <t>2022-03-16T09:57:32-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-OrganizationAffiliation.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-OrganizationAffiliation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-16T09:57:32-04:00</t>
+    <t>2022-03-25T16:16:05-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-OrganizationAffiliation.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-OrganizationAffiliation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T16:16:05-04:00</t>
+    <t>2022-03-25T16:25:37-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-OrganizationAffiliation.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-OrganizationAffiliation.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$46</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$31</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1547" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="266">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-25T16:25:37-04:00</t>
+    <t>2022-04-01T12:43:46-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -650,249 +650,107 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
-    <t>OrganizationAffiliation.identifier.id</t>
-  </si>
-  <si>
-    <t>OrganizationAffiliation.identifier.extension</t>
-  </si>
-  <si>
-    <t>OrganizationAffiliation.identifier.use</t>
-  </si>
-  <si>
-    <t>usual | official | temp | secondary | old (If known)</t>
-  </si>
-  <si>
-    <t>The purpose of this identifier.</t>
-  </si>
-  <si>
-    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
-  </si>
-  <si>
-    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for this identifier, if known .</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
-  </si>
-  <si>
-    <t>Identifier.use</t>
-  </si>
-  <si>
-    <t>Role.code or implied by context</t>
-  </si>
-  <si>
-    <t>OrganizationAffiliation.identifier.type</t>
+    <t>OrganizationAffiliation.active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>Whether this organization affiliation record is in active use</t>
+  </si>
+  <si>
+    <t>Whether this organization affiliation record is in active use.</t>
+  </si>
+  <si>
+    <t>If this value is false, you may refer to the period to see when the role was in active use. If there is no period specified, no inference can be made about when it was active.</t>
+  </si>
+  <si>
+    <t>Need to be able to mark an organization affiliation record as not to be used because it was created in error, or otherwise no longer in active use.</t>
+  </si>
+  <si>
+    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>OrganizationAffiliation.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>The period during which the participatingOrganization is affiliated with the primary organization</t>
+  </si>
+  <si>
+    <t>The period during which the participatingOrganization is affiliated with the primary organization.</t>
+  </si>
+  <si>
+    <t>An affiliation may be created ahead of time and only be active for a defined period of time. Once the affiliation is complete, the fact that it existed may still be required.</t>
+  </si>
+  <si>
+    <t>.performance[@typeCode &lt;= 'PPRF'].ActDefinitionOrEvent.effectiveTime</t>
+  </si>
+  <si>
+    <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>OrganizationAffiliation.organization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization where the role is available</t>
+  </si>
+  <si>
+    <t>Organization where the role is available (primary organization/has members).</t>
+  </si>
+  <si>
+    <t>.scoper</t>
+  </si>
+  <si>
+    <t>OrganizationAffiliation.participatingOrganization</t>
+  </si>
+  <si>
+    <t>Organization that provides/performs the role (e.g. providing services or is a member of)</t>
+  </si>
+  <si>
+    <t>The Participating Organization provides/performs the role(s) defined by the code to the Primary Organization (e.g. providing services or is a member of).</t>
+  </si>
+  <si>
+    <t>.player</t>
+  </si>
+  <si>
+    <t>OrganizationAffiliation.network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Network)
+</t>
+  </si>
+  <si>
+    <t>Health insurance provider network in which the participatingOrganization provides the role's services (if defined) at the indicated locations (if defined)</t>
+  </si>
+  <si>
+    <t>Health insurance provider network in which the participatingOrganization provides the role's services (if defined) at the indicated locations (if defined).</t>
+  </si>
+  <si>
+    <t>OrganizationAffiliation.code</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>Description of identifier</t>
-  </si>
-  <si>
-    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
-  </si>
-  <si>
-    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
-  </si>
-  <si>
-    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
-  </si>
-  <si>
-    <t>Identifier.type</t>
-  </si>
-  <si>
-    <t>OrganizationAffiliation.identifier.system</t>
-  </si>
-  <si>
-    <t>The namespace for the identifier value</t>
-  </si>
-  <si>
-    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
-  </si>
-  <si>
-    <t>Identifier.system is always case sensitive.</t>
-  </si>
-  <si>
-    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
-  </si>
-  <si>
-    <t>http://www.acme.com/identifiers/patient</t>
-  </si>
-  <si>
-    <t>Identifier.system</t>
-  </si>
-  <si>
-    <t>II.root or Role.id.root</t>
-  </si>
-  <si>
-    <t>OrganizationAffiliation.identifier.value</t>
-  </si>
-  <si>
-    <t>The value that is unique</t>
-  </si>
-  <si>
-    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
-  </si>
-  <si>
-    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
-  </si>
-  <si>
-    <t>123456</t>
-  </si>
-  <si>
-    <t>Identifier.value</t>
-  </si>
-  <si>
-    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
-  </si>
-  <si>
-    <t>OrganizationAffiliation.identifier.period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Time period when id is/was valid for use</t>
-  </si>
-  <si>
-    <t>Time period during which identifier is/was valid for use.</t>
-  </si>
-  <si>
-    <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>Role.effectiveTime or implied by context</t>
-  </si>
-  <si>
-    <t>OrganizationAffiliation.identifier.assigner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization that issued id (may be just text)</t>
-  </si>
-  <si>
-    <t>Organization that issued/manages the identifier.</t>
-  </si>
-  <si>
-    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
-  </si>
-  <si>
-    <t>Identifier.assigner</t>
-  </si>
-  <si>
-    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
-  </si>
-  <si>
-    <t>OrganizationAffiliation.active</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>Whether this organization affiliation record is in active use</t>
-  </si>
-  <si>
-    <t>Whether this organization affiliation record is in active use.</t>
-  </si>
-  <si>
-    <t>If this value is false, you may refer to the period to see when the role was in active use. If there is no period specified, no inference can be made about when it was active.</t>
-  </si>
-  <si>
-    <t>Need to be able to mark an organization affiliation record as not to be used because it was created in error, or otherwise no longer in active use.</t>
-  </si>
-  <si>
-    <t>This resource is generally assumed to be active if no value is provided for the active element</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>OrganizationAffiliation.period</t>
-  </si>
-  <si>
-    <t>The period during which the participatingOrganization is affiliated with the primary organization</t>
-  </si>
-  <si>
-    <t>The period during which the participatingOrganization is affiliated with the primary organization.</t>
-  </si>
-  <si>
-    <t>An affiliation may be created ahead of time and only be active for a defined period of time. Once the affiliation is complete, the fact that it existed may still be required.</t>
-  </si>
-  <si>
-    <t>.performance[@typeCode &lt;= 'PPRF'].ActDefinitionOrEvent.effectiveTime</t>
-  </si>
-  <si>
-    <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>OrganizationAffiliation.organization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Organization)
-</t>
-  </si>
-  <si>
-    <t>Organization where the role is available</t>
-  </si>
-  <si>
-    <t>Organization where the role is available (primary organization/has members).</t>
-  </si>
-  <si>
-    <t>.scoper</t>
-  </si>
-  <si>
-    <t>OrganizationAffiliation.participatingOrganization</t>
-  </si>
-  <si>
-    <t>Organization that provides/performs the role (e.g. providing services or is a member of)</t>
-  </si>
-  <si>
-    <t>The Participating Organization provides/performs the role(s) defined by the code to the Primary Organization (e.g. providing services or is a member of).</t>
-  </si>
-  <si>
-    <t>.player</t>
-  </si>
-  <si>
-    <t>OrganizationAffiliation.network</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/NatlDirEndpointQry-Network)
-</t>
-  </si>
-  <si>
-    <t>Health insurance provider network in which the participatingOrganization provides the role's services (if defined) at the indicated locations (if defined)</t>
-  </si>
-  <si>
-    <t>Health insurance provider network in which the participatingOrganization provides the role's services (if defined) at the indicated locations (if defined).</t>
-  </si>
-  <si>
-    <t>OrganizationAffiliation.code</t>
-  </si>
-  <si>
     <t>Definition of the role the participatingOrganization plays</t>
   </si>
   <si>
@@ -912,6 +770,9 @@
   </si>
   <si>
     <t>Specific specialty of the participatingOrganization in the context of the role.</t>
+  </si>
+  <si>
+    <t>required</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/SpecialtiesVS</t>
@@ -972,119 +833,6 @@
   </si>
   <si>
     <t>.telecom</t>
-  </si>
-  <si>
-    <t>OrganizationAffiliation.telecom.id</t>
-  </si>
-  <si>
-    <t>OrganizationAffiliation.telecom.extension</t>
-  </si>
-  <si>
-    <t>OrganizationAffiliation.telecom.system</t>
-  </si>
-  <si>
-    <t>phone | fax | email | pager | url | sms | other</t>
-  </si>
-  <si>
-    <t>Telecommunications form for contact point - what communications system is required to make use of the contact.</t>
-  </si>
-  <si>
-    <t>Telecommunications form for contact point.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-system|4.0.1</t>
-  </si>
-  <si>
-    <t>ContactPoint.system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cpt-2
-</t>
-  </si>
-  <si>
-    <t>./scheme</t>
-  </si>
-  <si>
-    <t>OrganizationAffiliation.telecom.value</t>
-  </si>
-  <si>
-    <t>The actual contact point details</t>
-  </si>
-  <si>
-    <t>The actual contact point details, in a form that is meaningful to the designated communication system (i.e. phone number or email address).</t>
-  </si>
-  <si>
-    <t>Additional text data such as phone extension numbers, or notes about use of the contact are sometimes included in the value.</t>
-  </si>
-  <si>
-    <t>Need to support legacy numbers that are not in a tightly controlled format.</t>
-  </si>
-  <si>
-    <t>ContactPoint.value</t>
-  </si>
-  <si>
-    <t>./url</t>
-  </si>
-  <si>
-    <t>OrganizationAffiliation.telecom.use</t>
-  </si>
-  <si>
-    <t>home | work | temp | old | mobile - purpose of this contact point</t>
-  </si>
-  <si>
-    <t>Identifies the purpose for the contact point.</t>
-  </si>
-  <si>
-    <t>Applications can assume that a contact is current unless it explicitly says that it is temporary or old.</t>
-  </si>
-  <si>
-    <t>Need to track the way a person uses this contact, so a user can choose which is appropriate for their purpose.</t>
-  </si>
-  <si>
-    <t>Use of contact point.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/contact-point-use|4.0.1</t>
-  </si>
-  <si>
-    <t>ContactPoint.use</t>
-  </si>
-  <si>
-    <t>unique(./use)</t>
-  </si>
-  <si>
-    <t>OrganizationAffiliation.telecom.rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">positiveInt
-</t>
-  </si>
-  <si>
-    <t>Specify preferred order of use (1 = highest)</t>
-  </si>
-  <si>
-    <t>Specifies a preferred order in which to use a set of contacts. ContactPoints with lower rank values are more preferred than those with higher rank values.</t>
-  </si>
-  <si>
-    <t>Note that rank does not necessarily follow the order in which the contacts are represented in the instance.</t>
-  </si>
-  <si>
-    <t>ContactPoint.rank</t>
-  </si>
-  <si>
-    <t>OrganizationAffiliation.telecom.period</t>
-  </si>
-  <si>
-    <t>Time period when the contact point was/is in use</t>
-  </si>
-  <si>
-    <t>Time period when the contact point was/is in use.</t>
-  </si>
-  <si>
-    <t>ContactPoint.period</t>
-  </si>
-  <si>
-    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
   </si>
   <si>
     <t>OrganizationAffiliation.endpoint</t>
@@ -1417,7 +1165,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK46"/>
+  <dimension ref="A1:AK31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1461,7 +1209,7 @@
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="99.6875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="75.79296875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -3575,7 +3323,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>82</v>
@@ -3587,28 +3335,34 @@
         <v>74</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>84</v>
+        <v>204</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>96</v>
+        <v>205</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>208</v>
+      </c>
       <c r="O21" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P21" s="2"/>
+      <c r="P21" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="Q21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>74</v>
+        <v>210</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>74</v>
@@ -3647,7 +3401,7 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>98</v>
+        <v>203</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -3659,29 +3413,29 @@
         <v>74</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>99</v>
+        <v>211</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>74</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>74</v>
@@ -3690,21 +3444,21 @@
         <v>74</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>102</v>
+        <v>214</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>103</v>
+        <v>215</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>74</v>
       </c>
@@ -3740,42 +3494,42 @@
         <v>74</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>109</v>
+        <v>213</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>99</v>
+        <v>218</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" hidden="true">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3789,29 +3543,25 @@
         <v>82</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>158</v>
+        <v>221</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>209</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>74</v>
       </c>
@@ -3835,13 +3585,13 @@
         <v>74</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>210</v>
+        <v>74</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>211</v>
+        <v>74</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>212</v>
+        <v>74</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>74</v>
@@ -3859,7 +3609,7 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -3874,7 +3624,7 @@
         <v>94</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>74</v>
@@ -3882,7 +3632,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3905,20 +3655,16 @@
         <v>83</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>220</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>74</v>
       </c>
@@ -3942,13 +3688,13 @@
         <v>74</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>221</v>
+        <v>74</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>222</v>
+        <v>74</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>74</v>
@@ -3966,7 +3712,7 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -3981,7 +3727,7 @@
         <v>94</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>74</v>
@@ -3989,7 +3735,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4000,7 +3746,7 @@
         <v>75</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>74</v>
@@ -4012,20 +3758,16 @@
         <v>83</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>124</v>
+        <v>230</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>74</v>
       </c>
@@ -4037,49 +3779,49 @@
         <v>74</v>
       </c>
       <c r="S25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE25" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="T25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>230</v>
-      </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>74</v>
@@ -4088,15 +3830,15 @@
         <v>94</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>231</v>
+        <v>74</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4107,10 +3849,10 @@
         <v>75</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>74</v>
@@ -4119,17 +3861,15 @@
         <v>83</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>84</v>
+        <v>234</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>74</v>
@@ -4142,7 +3882,7 @@
         <v>74</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>236</v>
+        <v>74</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>74</v>
@@ -4154,13 +3894,11 @@
         <v>74</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="X26" s="2"/>
       <c r="Y26" t="s" s="2">
-        <v>74</v>
+        <v>237</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>74</v>
@@ -4178,13 +3916,13 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>74</v>
@@ -4212,7 +3950,7 @@
         <v>75</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>74</v>
@@ -4224,13 +3962,13 @@
         <v>83</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4257,13 +3995,11 @@
         <v>74</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="X27" s="2"/>
       <c r="Y27" t="s" s="2">
-        <v>74</v>
+        <v>243</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>74</v>
@@ -4281,13 +4017,13 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>74</v>
@@ -4302,7 +4038,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
         <v>245</v>
       </c>
@@ -4315,10 +4051,10 @@
         <v>75</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>74</v>
@@ -4335,9 +4071,7 @@
       <c r="L28" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="M28" t="s" s="2">
-        <v>249</v>
-      </c>
+      <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>74</v>
@@ -4386,13 +4120,13 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>74</v>
@@ -4401,15 +4135,15 @@
         <v>94</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="29" hidden="true">
+      <c r="A29" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4417,46 +4151,40 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="L29" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>257</v>
-      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P29" t="s" s="2">
-        <v>258</v>
-      </c>
+      <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>259</v>
+        <v>74</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>74</v>
@@ -4495,13 +4223,13 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>74</v>
@@ -4510,15 +4238,15 @@
         <v>94</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4529,10 +4257,10 @@
         <v>75</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>74</v>
@@ -4541,17 +4269,17 @@
         <v>83</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>74</v>
@@ -4600,13 +4328,13 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>74</v>
@@ -4615,15 +4343,15 @@
         <v>94</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>267</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4634,7 +4362,7 @@
         <v>75</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>83</v>
@@ -4643,16 +4371,16 @@
         <v>74</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4703,13 +4431,13 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>74</v>
@@ -4718,1569 +4446,14 @@
         <v>94</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>272</v>
+        <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I32" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J32" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="K32" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="K33" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="K34" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P34" s="2"/>
-      <c r="Q34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="X34" s="2"/>
-      <c r="Y34" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G35" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="K35" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="L35" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="X35" s="2"/>
-      <c r="Y35" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G36" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I36" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J36" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="K36" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P36" s="2"/>
-      <c r="Q36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G37" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J37" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="K37" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="L37" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P37" s="2"/>
-      <c r="Q37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="AF37" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG37" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH37" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI37" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AK37" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G38" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I38" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J38" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="K38" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P38" s="2"/>
-      <c r="Q38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" hidden="true">
-      <c r="A39" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P39" s="2"/>
-      <c r="Q39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" hidden="true">
-      <c r="A40" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J40" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P40" s="2"/>
-      <c r="Q40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="B41" s="2"/>
-      <c r="C41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P41" s="2"/>
-      <c r="Q41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G42" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K42" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="L42" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P42" s="2"/>
-      <c r="Q42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" hidden="true">
-      <c r="A43" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H43" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="K43" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P43" s="2"/>
-      <c r="Q43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G44" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J44" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P44" s="2"/>
-      <c r="Q44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="45" hidden="true">
-      <c r="A45" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J45" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P45" s="2"/>
-      <c r="Q45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G46" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J46" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P46" s="2"/>
-      <c r="Q46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AK46">
+  <autoFilter ref="A1:AK31">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6290,7 +4463,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI45">
+  <conditionalFormatting sqref="A2:AI30">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-NatlDirEndpointQry-OrganizationAffiliation.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-OrganizationAffiliation.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$39</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="312">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-01T12:43:46-04:00</t>
+    <t>2022-04-05T10:32:14-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -650,6 +650,156 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
+    <t>OrganizationAffiliation.identifier.id</t>
+  </si>
+  <si>
+    <t>OrganizationAffiliation.identifier.extension</t>
+  </si>
+  <si>
+    <t>OrganizationAffiliation.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>OrganizationAffiliation.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>OrganizationAffiliation.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>OrganizationAffiliation.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>OrganizationAffiliation.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>OrganizationAffiliation.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
     <t>OrganizationAffiliation.active</t>
   </si>
   <si>
@@ -684,10 +834,6 @@
     <t>OrganizationAffiliation.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
     <t>The period during which the participatingOrganization is affiliated with the primary organization</t>
   </si>
   <si>
@@ -747,10 +893,6 @@
     <t>OrganizationAffiliation.code</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
     <t>Definition of the role the participatingOrganization plays</t>
   </si>
   <si>
@@ -770,9 +912,6 @@
   </si>
   <si>
     <t>Specific specialty of the participatingOrganization in the context of the role.</t>
-  </si>
-  <si>
-    <t>required</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/us/fhir-directory-query/ValueSet/SpecialtiesVS</t>
@@ -1165,7 +1304,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK31"/>
+  <dimension ref="A1:AK39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1209,7 +1348,7 @@
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="75.79296875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="99.6875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
@@ -3208,7 +3347,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>196</v>
       </c>
@@ -3224,7 +3363,7 @@
         <v>76</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>74</v>
@@ -3323,7 +3462,7 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>82</v>
@@ -3335,34 +3474,28 @@
         <v>74</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>204</v>
+        <v>84</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>205</v>
+        <v>96</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>208</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="P21" t="s" s="2">
-        <v>209</v>
-      </c>
+      <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>210</v>
+        <v>74</v>
       </c>
       <c r="S21" t="s" s="2">
         <v>74</v>
@@ -3401,7 +3534,7 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>203</v>
+        <v>98</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
@@ -3413,29 +3546,29 @@
         <v>74</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>211</v>
+        <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>212</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>74</v>
@@ -3444,21 +3577,21 @@
         <v>74</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>214</v>
+        <v>102</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>215</v>
+        <v>103</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>74</v>
       </c>
@@ -3494,42 +3627,42 @@
         <v>74</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>213</v>
+        <v>109</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>218</v>
+        <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3543,25 +3676,29 @@
         <v>82</v>
       </c>
       <c r="G23" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H23" t="s" s="2">
         <v>83</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>221</v>
+        <v>158</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+        <v>207</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>74</v>
       </c>
@@ -3585,13 +3722,13 @@
         <v>74</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>74</v>
+        <v>210</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>74</v>
+        <v>211</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>74</v>
+        <v>212</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>74</v>
@@ -3609,7 +3746,7 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -3624,15 +3761,15 @@
         <v>94</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3646,7 +3783,7 @@
         <v>82</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>74</v>
@@ -3655,16 +3792,20 @@
         <v>83</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>74</v>
       </c>
@@ -3688,13 +3829,13 @@
         <v>74</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>74</v>
+        <v>140</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>74</v>
+        <v>221</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>74</v>
+        <v>222</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>74</v>
@@ -3712,7 +3853,7 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -3727,7 +3868,7 @@
         <v>94</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>74</v>
@@ -3735,7 +3876,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3746,7 +3887,7 @@
         <v>75</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>74</v>
@@ -3758,16 +3899,20 @@
         <v>83</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>230</v>
+        <v>124</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="M25" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>228</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>74</v>
       </c>
@@ -3779,7 +3924,7 @@
         <v>74</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>74</v>
+        <v>229</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>74</v>
@@ -3815,13 +3960,13 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>74</v>
@@ -3830,7 +3975,7 @@
         <v>94</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>74</v>
+        <v>231</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>74</v>
@@ -3838,7 +3983,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3849,7 +3994,7 @@
         <v>75</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>74</v>
@@ -3861,15 +4006,17 @@
         <v>83</v>
       </c>
       <c r="J26" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="K26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L26" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>74</v>
@@ -3882,7 +4029,7 @@
         <v>74</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>74</v>
+        <v>236</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>74</v>
@@ -3894,35 +4041,37 @@
         <v>74</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="X26" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE26" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="Z26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>233</v>
-      </c>
       <c r="AF26" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>74</v>
@@ -3950,7 +4099,7 @@
         <v>75</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>74</v>
@@ -3962,13 +4111,13 @@
         <v>83</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3995,35 +4144,37 @@
         <v>74</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="X27" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="Z27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>239</v>
-      </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>74</v>
@@ -4051,7 +4202,7 @@
         <v>75</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>83</v>
@@ -4071,7 +4222,9 @@
       <c r="L28" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="M28" s="2"/>
+      <c r="M28" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>74</v>
@@ -4120,13 +4273,13 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>74</v>
@@ -4135,15 +4288,15 @@
         <v>94</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>250</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4151,10 +4304,10 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>74</v>
@@ -4163,73 +4316,79 @@
         <v>74</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P29" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="Q29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R29" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE29" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="K29" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>251</v>
-      </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>74</v>
@@ -4238,15 +4397,15 @@
         <v>94</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>74</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4257,7 +4416,7 @@
         <v>75</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>74</v>
@@ -4269,17 +4428,17 @@
         <v>83</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>74</v>
@@ -4328,13 +4487,13 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>74</v>
@@ -4343,15 +4502,15 @@
         <v>94</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>74</v>
+        <v>267</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4362,7 +4521,7 @@
         <v>75</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>83</v>
@@ -4371,16 +4530,16 @@
         <v>74</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4431,13 +4590,13 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>74</v>
@@ -4446,14 +4605,836 @@
         <v>94</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="K32" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P32" s="2"/>
+      <c r="Q32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" hidden="true">
+      <c r="A33" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P33" s="2"/>
+      <c r="Q33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" hidden="true">
+      <c r="A34" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="X34" s="2"/>
+      <c r="Y34" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" hidden="true">
+      <c r="A35" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="X35" s="2"/>
+      <c r="Y35" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="37" hidden="true">
+      <c r="A37" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AK39" t="s" s="2">
         <v>74</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK31">
+  <autoFilter ref="A1:AK39">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -4463,7 +5444,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI30">
+  <conditionalFormatting sqref="A2:AI38">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-NatlDirEndpointQry-OrganizationAffiliation.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-OrganizationAffiliation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T10:32:14-04:00</t>
+    <t>2022-04-05T18:50:47-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-OrganizationAffiliation.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-OrganizationAffiliation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-05T18:50:47-04:00</t>
+    <t>2022-04-08T11:43:46-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-OrganizationAffiliation.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-OrganizationAffiliation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-08T11:43:46-04:00</t>
+    <t>2022-04-20T16:26:55-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-OrganizationAffiliation.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-OrganizationAffiliation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T16:26:55-04:00</t>
+    <t>2022-05-25T13:59:19-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-OrganizationAffiliation.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-OrganizationAffiliation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-25T13:59:19-04:00</t>
+    <t>2022-06-03T15:19:55-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-OrganizationAffiliation.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-OrganizationAffiliation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-03T15:19:55-04:00</t>
+    <t>2022-07-08T11:33:11-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-OrganizationAffiliation.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-OrganizationAffiliation.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AK$38</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="306">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T11:33:11-04:00</t>
+    <t>2022-07-12T12:55:11-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -586,30 +586,10 @@
     <t>OrganizationAffiliation.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>qualification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/fhir-directory-query/StructureDefinition/qualification}
-</t>
-  </si>
-  <si>
-    <t>Qualification</t>
-  </si>
-  <si>
-    <t>An extension to add qualifications for an organization (e.g. accreditation) or practitionerRole (e.g. registered to prescribe controlled substances).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
   </si>
   <si>
     <t>OrganizationAffiliation.modifierExtension</t>
@@ -1304,7 +1284,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK39"/>
+  <dimension ref="A1:AK38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1314,7 +1294,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="44.5390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.12890625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -3040,7 +3020,7 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3062,12 +3042,14 @@
         <v>102</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="L17" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M17" s="2"/>
+      <c r="M17" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>74</v>
@@ -3104,17 +3086,19 @@
         <v>74</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AB17" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AC17" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>75</v>
@@ -3129,7 +3113,7 @@
         <v>110</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>74</v>
+        <v>181</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>74</v>
@@ -3137,13 +3121,11 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3156,22 +3138,26 @@
         <v>74</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>74</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="M18" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="N18" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>74</v>
       </c>
@@ -3219,7 +3205,7 @@
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>75</v>
@@ -3228,25 +3214,25 @@
         <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>190</v>
+        <v>74</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>110</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>74</v>
+        <v>181</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3256,16 +3242,16 @@
         <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H19" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="I19" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="J19" t="s" s="2">
-        <v>102</v>
+        <v>191</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>192</v>
@@ -3273,9 +3259,7 @@
       <c r="L19" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M19" t="s" s="2">
-        <v>105</v>
-      </c>
+      <c r="M19" s="2"/>
       <c r="N19" t="s" s="2">
         <v>194</v>
       </c>
@@ -3326,7 +3310,7 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>75</v>
@@ -3338,18 +3322,18 @@
         <v>74</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3360,30 +3344,28 @@
         <v>75</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>197</v>
+        <v>84</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>198</v>
+        <v>96</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>199</v>
+        <v>97</v>
       </c>
       <c r="M20" s="2"/>
-      <c r="N20" t="s" s="2">
-        <v>200</v>
-      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>74</v>
       </c>
@@ -3431,41 +3413,41 @@
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>196</v>
+        <v>98</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>201</v>
+        <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>202</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>74</v>
+        <v>101</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>74</v>
@@ -3477,15 +3459,17 @@
         <v>74</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>74</v>
@@ -3522,31 +3506,31 @@
         <v>74</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>99</v>
@@ -3557,41 +3541,43 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>102</v>
+        <v>158</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>103</v>
+        <v>200</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>104</v>
+        <v>201</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="N22" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>74</v>
       </c>
@@ -3615,46 +3601,46 @@
         <v>74</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>74</v>
+        <v>204</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>74</v>
+        <v>205</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>74</v>
+        <v>206</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
       <c r="AC22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>108</v>
+        <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>109</v>
+        <v>207</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>99</v>
+        <v>208</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>74</v>
@@ -3662,7 +3648,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3679,25 +3665,25 @@
         <v>74</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>74</v>
@@ -3722,13 +3708,13 @@
         <v>74</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>210</v>
+        <v>140</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>74</v>
@@ -3746,7 +3732,7 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>75</v>
@@ -3761,7 +3747,7 @@
         <v>94</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>74</v>
@@ -3769,7 +3755,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3792,19 +3778,19 @@
         <v>83</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>216</v>
+        <v>124</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>74</v>
@@ -3817,7 +3803,7 @@
         <v>74</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>74</v>
+        <v>223</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>74</v>
@@ -3829,13 +3815,13 @@
         <v>74</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>140</v>
+        <v>74</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>221</v>
+        <v>74</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>222</v>
+        <v>74</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>74</v>
@@ -3853,7 +3839,7 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>75</v>
@@ -3868,7 +3854,7 @@
         <v>94</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>74</v>
@@ -3876,7 +3862,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3899,20 +3885,18 @@
         <v>83</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>228</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>74</v>
       </c>
@@ -3924,7 +3908,7 @@
         <v>74</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>74</v>
@@ -3960,7 +3944,7 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>75</v>
@@ -3975,7 +3959,7 @@
         <v>94</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>74</v>
@@ -3983,7 +3967,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4006,17 +3990,15 @@
         <v>83</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>84</v>
+        <v>234</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>235</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>74</v>
@@ -4029,7 +4011,7 @@
         <v>74</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>236</v>
+        <v>74</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>74</v>
@@ -4086,7 +4068,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>239</v>
       </c>
@@ -4102,7 +4084,7 @@
         <v>82</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>74</v>
@@ -4119,7 +4101,9 @@
       <c r="L27" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="M27" s="2"/>
+      <c r="M27" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>74</v>
@@ -4168,7 +4152,7 @@
         <v>74</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>75</v>
@@ -4183,15 +4167,15 @@
         <v>94</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4199,13 +4183,13 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>82</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>74</v>
@@ -4214,66 +4198,70 @@
         <v>83</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P28" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="Q28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE28" t="s" s="2">
         <v>246</v>
-      </c>
-      <c r="K28" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>250</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>75</v>
@@ -4288,15 +4276,15 @@
         <v>94</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>74</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4304,7 +4292,7 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>82</v>
@@ -4319,70 +4307,66 @@
         <v>83</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M29" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P29" s="2"/>
+      <c r="Q29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE29" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P29" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="Q29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R29" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -4403,7 +4387,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
         <v>262</v>
       </c>
@@ -4419,7 +4403,7 @@
         <v>82</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>74</v>
@@ -4428,18 +4412,16 @@
         <v>83</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M30" s="2"/>
-      <c r="N30" t="s" s="2">
-        <v>265</v>
-      </c>
+      <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>74</v>
       </c>
@@ -4505,12 +4487,12 @@
         <v>266</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>267</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4533,13 +4515,13 @@
         <v>83</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4590,7 +4572,7 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>75</v>
@@ -4605,15 +4587,15 @@
         <v>94</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4624,10 +4606,10 @@
         <v>75</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>74</v>
@@ -4636,13 +4618,13 @@
         <v>83</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4693,13 +4675,13 @@
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>74</v>
@@ -4708,7 +4690,7 @@
         <v>94</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>276</v>
+        <v>74</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>74</v>
@@ -4716,7 +4698,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4739,13 +4721,13 @@
         <v>83</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>278</v>
+        <v>210</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4772,13 +4754,11 @@
         <v>74</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="X33" s="2"/>
       <c r="Y33" t="s" s="2">
-        <v>74</v>
+        <v>278</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>74</v>
@@ -4796,7 +4776,7 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>75</v>
@@ -4811,7 +4791,7 @@
         <v>94</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>74</v>
+        <v>279</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>74</v>
@@ -4819,7 +4799,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4842,13 +4822,13 @@
         <v>83</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>283</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4875,11 +4855,11 @@
         <v>74</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>140</v>
+        <v>204</v>
       </c>
       <c r="X34" s="2"/>
       <c r="Y34" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>74</v>
@@ -4897,7 +4877,7 @@
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>75</v>
@@ -4912,15 +4892,15 @@
         <v>94</v>
       </c>
       <c r="AJ34" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" hidden="true">
-      <c r="A35" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4934,7 +4914,7 @@
         <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>74</v>
@@ -4943,7 +4923,7 @@
         <v>83</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>216</v>
+        <v>286</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>287</v>
@@ -4976,11 +4956,13 @@
         <v>74</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="X35" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y35" t="s" s="2">
-        <v>289</v>
+        <v>74</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>74</v>
@@ -4998,7 +4980,7 @@
         <v>74</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>75</v>
@@ -5013,13 +4995,13 @@
         <v>94</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AK35" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="AK35" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36">
+    </row>
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
         <v>291</v>
       </c>
@@ -5035,13 +5017,13 @@
         <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>292</v>
@@ -5119,12 +5101,12 @@
         <v>295</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>296</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5144,19 +5126,21 @@
         <v>74</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" s="2"/>
+      <c r="N37" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
         <v>74</v>
       </c>
@@ -5204,7 +5188,7 @@
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>75</v>
@@ -5225,7 +5209,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
         <v>302</v>
       </c>
@@ -5241,13 +5225,13 @@
         <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J38" t="s" s="2">
         <v>303</v>
@@ -5259,9 +5243,7 @@
         <v>305</v>
       </c>
       <c r="M38" s="2"/>
-      <c r="N38" t="s" s="2">
-        <v>306</v>
-      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>74</v>
       </c>
@@ -5324,117 +5306,14 @@
         <v>94</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>307</v>
+        <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>74</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G39" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="H39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J39" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="K39" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P39" s="2"/>
-      <c r="Q39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AK39">
+  <autoFilter ref="A1:AK38">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5444,7 +5323,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI38">
+  <conditionalFormatting sqref="A2:AI37">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/StructureDefinition-NatlDirEndpointQry-OrganizationAffiliation.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-OrganizationAffiliation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-12T12:55:11-04:00</t>
+    <t>2022-07-13T15:48:20-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1296,7 +1296,7 @@
     <col min="1" max="1" width="44.5390625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.90234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
@@ -1312,23 +1312,23 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.08984375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="95.7734375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="95.77734375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="74.8046875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.3046875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="44.5390625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.87890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="99.6875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="99.69140625" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>

--- a/output/StructureDefinition-NatlDirEndpointQry-OrganizationAffiliation.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-OrganizationAffiliation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-13T15:48:20-04:00</t>
+    <t>2022-07-14T18:44:03-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-OrganizationAffiliation.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-OrganizationAffiliation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T18:44:03-04:00</t>
+    <t>2022-07-21T17:51:33-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-OrganizationAffiliation.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-OrganizationAffiliation.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>1.0.0-ballot1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-21T17:51:33-04:00</t>
+    <t>2022-07-24T13:15:49-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-NatlDirEndpointQry-OrganizationAffiliation.xlsx
+++ b/output/StructureDefinition-NatlDirEndpointQry-OrganizationAffiliation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-24T13:15:49-04:00</t>
+    <t>2022-07-25T09:59:20-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
